--- a/src/test/resources/com/sirion/xls/Interpretation Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Interpretation Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="914" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="914"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="101">
   <si>
     <t>TCID</t>
   </si>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,11 +817,9 @@
         <v>47</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -901,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -1421,7 +1419,7 @@
     <col min="17" max="17" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
     <col min="18" max="30" customWidth="true" width="28.7109375" collapsed="true"/>
     <col min="31" max="31" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
     <col min="33" max="33" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>

--- a/src/test/resources/com/sirion/xls/Interpretation Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Interpretation Suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/com/sirion/xls/Interpretation Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Interpretation Suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>
